--- a/uploads/customer_loans_backup.xlsx
+++ b/uploads/customer_loans_backup.xlsx
@@ -523,7 +523,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>F   2   7   4   6   6   7   1   6   7   6   7   4   2   5   6   7   3   7   7</t>
+          <t>F27   466   716   7   6   7425   6   737   7</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -538,37 +538,37 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>$    37  ,  166  ,  882  ,415.52 AND 12%</t>
+          <t>$    41  ,  390  ,  391  ,780.92 AND 2%</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>12 YEARS AND 12.00%</t>
+          <t>3 YEARS AND 3.00%</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>STI</t>
+          <t>DHARHSAN</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>F   2   7   4   6   6   7   1   6   7   6   7   4   2   5   6   7   3   7   A</t>
+          <t>F   2   7   4   6   6   7   1   6   7   6   7   4   2   555   7   3   7   A</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>$    32  ,  706  ,  856  ,525.66 AND $    27  ,  255  ,713.77</t>
+          <t>$    40  ,  562  ,  583  ,945.30 AND $    22  ,  534  ,768.86</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>$    5  ,  651  ,  744  ,807.64 AND NA</t>
+          <t>$    73  ,  012  ,651.10 AND NA</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>$    11  ,  174  ,842.65 AND $    75  ,  225  ,770.01</t>
+          <t>$    28  ,  731  ,830.30 AND NA</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -577,28 +577,28 @@
         </is>
       </c>
       <c r="L2" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="M2" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="N2" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="O2" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="P2" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="Q2" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>F   2   7   4   6   6   7   1   6   7   6   7   4   2   5   6   7   3   7   7</t>
+          <t>F27   466   716   7   6   7425   6   737   7</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -608,17 +608,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>LODALE. KY</t>
+          <t>SALEM , TN</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>$    38  ,  011  ,  584  ,288.60 AND 10%</t>
+          <t>$    41  ,  390  ,  391  ,780.92 AND 2%</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>10 YEARS AND 10.00%</t>
+          <t>2 YEARS AND 2.00%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -628,22 +628,22 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>F   2   7   4   6   6   7   1   6   7   6   7   4   2   5   6   7   3   7   A</t>
+          <t>3313asd</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>$    34  ,  210  ,  425  ,859.74 AND $    28  ,  508  ,688.22</t>
+          <t>$    40  ,  562  ,  583  ,945.30 AND $    33  ,  802  ,153.29</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>$    3  ,  421  ,  042  ,585.97 AND NA</t>
+          <t>$    32  ,  450  ,067.16 AND NA</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>$    11  ,  688  ,562.17 AND $    78  ,  683  ,979.48</t>
+          <t>$    28  ,  731  ,830.30 AND NA</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -652,118 +652,118 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="M3" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="N3" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="O3" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="P3" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="Q3" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>268   444   6   86   8   26   86   8   28   6   8   2K   2</t>
+          <t>F27   466   716   7   6   7425   6   737   7</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MR.BENJAMIN  E  STEELE</t>
+          <t>MR.FRANK  L  SANCHEZ</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>DEFOOR , AL</t>
+          <t>SALEM , TN</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>$    9  ,  470  ,  131  ,939.22 AND 20%</t>
+          <t>$    41  ,  390  ,  391  ,780.92 AND 2%</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>17 YEARS AND 22.00%</t>
+          <t>2 YEARS AND 2.00%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>MR.BENJAMIN  E  STEELE</t>
+          <t>MS.MIRIAM  C  HUDSON</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>F   2   7   4   6   6   7   1   6   7   6   7   4   2   5   6   7   3   7   A</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>$    7  ,  576  ,  105  ,551.38 AND $    4  ,  085  ,154.95</t>
+          <t>$    40  ,  562  ,  583  ,945.30 AND $    33  ,  802  ,153.29</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>$    3  ,  116  ,  809  ,823.83 AND NA</t>
+          <t>$    32  ,  450  ,067.16 AND NA</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>$    2  ,  020  ,294.81 AND NA</t>
+          <t>$    28  ,  731  ,830.30 AND NA</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t xml:space="preserve">$ Four Hundred Seventy Three Billion Five Hundred Six Million Five Hundred Ninety Six Thousand Nine Hundred Thirty Seven dollars and Twenty four Cents </t>
+          <t>$ Forty Two Billion Two Hundred Thirty Five Million Nine Hundred Thirty Five T housand One Hundred Forty Two Dollars and Twelve Cents</t>
         </is>
       </c>
       <c r="L4" t="n">
         <v>2</v>
       </c>
       <c r="M4" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="N4" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="O4" t="n">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="P4" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="Q4" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>268   444   6   86   8   26   86   8   28   6   8   2K   2</t>
+          <t>F27   466   716   7   6   7425   6   737   7</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>MR.BENJAMIN  E  STEELE</t>
+          <t>MR.FRANK  L  SANCHEZ</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>DEFOOR , AL</t>
+          <t>SALEM , TN</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>$    9  ,  470  ,  131  ,939.22 AND 2%</t>
+          <t>$    41  ,  390  ,  391  ,780.92 AND 2%</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -773,32 +773,32 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>MRS.WILMA  J  WAGNER</t>
+          <t>MS.MIRIAM  C  HUDSON</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>F   2   7   4   6   6   7   1   6   7   6   7   4   2   5   6   7   3   7   A</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>$    9  ,  280  ,  729  ,300.44 AND $    7  ,  733  ,941.08</t>
+          <t>$    40  ,  562  ,  583  ,945.30 AND $    33  ,  802  ,153.29</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>$    81  ,  670  ,417.84 AND NA</t>
+          <t>$    32  ,  450  ,067.16 AND NA</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>$    6  ,  573  ,849.92 AND NA</t>
+          <t>$    28  ,  731  ,830.30 AND NA</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t xml:space="preserve">$ Four Hundred Seventy Three Billion Five Hundred Six Million Five Hundred Ninety Six Thousand Nine Hundred Thirty Seven dollars and Twenty four Cents </t>
+          <t>$ Forty Two Billion Two Hundred Thirty Five Million Nine Hundred Thirty Five T housand One Hundred Forty Two Dollars and Twelve Cents</t>
         </is>
       </c>
       <c r="L5" t="n">
@@ -817,13 +817,13 @@
         <v>2</v>
       </c>
       <c r="Q5" t="n">
-        <v>22</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>F27   466   716   7   6   7425   6   737   7</t>
+          <t>F   2   7   4   6   6   7   1   6   7   6   7   4   2   5   6   7   3   7   7</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -833,17 +833,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>LODALE. KY</t>
+          <t>SALEM , TN</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>$    5  ,  967  ,  818  ,733.31 AND 13%</t>
+          <t>$    41  ,  390  ,  391  ,780.92 AND 5%</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>15 YEARS AND 11.92%</t>
+          <t>12 YEARS AND 5.00%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -858,17 +858,17 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>$    5  ,  192  ,  002  ,297.98 AND $    1  ,  632  ,596.28</t>
+          <t>$    39  ,  320  ,  872  ,191.87 AND $    13  ,  653  ,080.62</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>$    1  ,  839  ,  950  ,081.56 AND NA</t>
+          <t>$    943  ,  700  ,932.60 AND NA</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>$    1  ,  773  ,934.12 AND $    11  ,  941  ,605.29</t>
+          <t>$    21  ,  954  ,153.64 AND $    102  ,  234  ,267.70</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -878,32 +878,32 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>14.13</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>5</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>12</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>11.92</t>
+          <t>5</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>5.66</t>
+          <t>5</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>19.82</t>
+          <t>4</t>
         </is>
       </c>
     </row>
